--- a/data/raw_data.xlsx
+++ b/data/raw_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\renan\Desktop\WACOG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liverollins-my.sharepoint.com/personal/rperes_rollins_edu/Documents/ANALYTICS/4_GITHUB/3_WACOG/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A8015B-FDCC-4BB0-9B17-A102E6416A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{42A8015B-FDCC-4BB0-9B17-A102E6416A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4AF3306-EE51-4504-933F-0354D81B5565}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D80979AB-A18D-4258-B534-930BE47A9BB9}"/>
   </bookViews>
@@ -223,12 +223,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.0000_);[Red]\(&quot;$&quot;#,##0.0000\)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.000_);_(&quot;$&quot;* \(#,##0.000\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -344,7 +345,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -403,6 +404,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="2" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -723,7 +731,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H20:M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +742,7 @@
     <col min="5" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.88671875" customWidth="1"/>
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5546875" customWidth="1"/>
@@ -764,7 +772,7 @@
       <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I1" s="9" t="s">
@@ -797,27 +805,27 @@
         <v>0</v>
       </c>
       <c r="E2" s="8">
-        <f>IF(C2&gt;0,C2,0)</f>
+        <f t="shared" ref="E2:E31" si="0">IF(C2&gt;0,C2,0)</f>
         <v>0</v>
       </c>
       <c r="F2" s="8">
-        <f>IF(C2&lt;0,C2,0)</f>
+        <f t="shared" ref="F2:F31" si="1">IF(C2&lt;0,C2,0)</f>
         <v>0</v>
       </c>
       <c r="G2" s="8">
         <f>SUM(D2:F2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="29">
         <f>0</f>
         <v>0</v>
       </c>
       <c r="I2" s="23">
-        <f>D2*B2</f>
+        <f t="shared" ref="I2:I31" si="2">D2*B2</f>
         <v>0</v>
       </c>
       <c r="J2" s="23">
-        <f>E2*B2</f>
+        <f t="shared" ref="J2:J31" si="3">E2*B2</f>
         <v>0</v>
       </c>
       <c r="K2" s="23">
@@ -829,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="11">
-        <f>L2*B2</f>
+        <f t="shared" ref="M2:M31" si="4">L2*B2</f>
         <v>0</v>
       </c>
     </row>
@@ -848,39 +856,39 @@
         <v>0</v>
       </c>
       <c r="E3" s="8">
-        <f>IF(C3&gt;0,C3,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3" s="8">
-        <f>IF(C3&lt;0,C3,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" ref="G3:G31" si="0">SUM(D3:F3)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="23">
-        <f>IF(AND(I3&gt;0,J3&gt;0),((J3/E3)+(I3/D3))/2,IF(J3=0,H2,IF(OR(I3=0,I3=""),J3/E3)))</f>
+        <f t="shared" ref="G3:G31" si="5">SUM(D3:F3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="29">
+        <f t="shared" ref="H3:H7" si="6">IF(J3=0,H2,IF(I3=0,J3/E3,IF(J3&gt;0,(H2*(1-(D3/G3))) + (B3*(1-(E3/G3))))))</f>
         <v>0</v>
       </c>
       <c r="I3" s="23">
-        <f>D3*B3</f>
+        <f t="shared" ref="I3:I7" si="7">D3*H2</f>
         <v>0</v>
       </c>
       <c r="J3" s="23">
-        <f>E3*B3</f>
+        <f t="shared" ref="J3:J7" si="8">E3*B3</f>
         <v>0</v>
       </c>
       <c r="K3" s="23">
-        <f t="shared" ref="K3:K31" si="1">(F3*H3)</f>
+        <f t="shared" ref="K3:K7" si="9">(F3*H3)</f>
         <v>0</v>
       </c>
       <c r="L3" s="23">
-        <f t="shared" ref="L3:L31" si="2">SUM(I3:K3)</f>
+        <f t="shared" ref="L3:L7" si="10">H3*G3</f>
         <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>L3*B3</f>
+        <f t="shared" ref="M3:M7" si="11">G3*B3</f>
         <v>0</v>
       </c>
     </row>
@@ -895,43 +903,43 @@
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f t="shared" ref="D4:D31" si="3">D3+E3+F3</f>
+        <f t="shared" ref="D4:D31" si="12">D3+E3+F3</f>
         <v>0</v>
       </c>
       <c r="E4" s="8">
-        <f>IF(C4&gt;0,C4,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>IF(C4&lt;0,C4,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G4" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="23">
-        <f>IF(AND(I4&gt;0,J4&gt;0),((J4/E4)+(I4/D4))/2,IF(J4=0,H3,IF(OR(I4=0,I4=""),J4/E4)))</f>
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="29">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I4" s="23">
-        <f>D4*B4</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J4" s="23">
-        <f>E4*B4</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K4" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L4" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M4" s="11">
-        <f>L4*B4</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -946,44 +954,44 @@
         <v>30</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <f>IF(C5&gt;0,C5,0)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="F5" s="8">
-        <f>IF(C5&lt;0,C5,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G5" s="8">
         <f>SUM(D5:F5)</f>
         <v>30</v>
       </c>
-      <c r="H5" s="23">
-        <f>IF(AND(I5&gt;0,J5&gt;0),((J5/E5)+(I5/D5))/2,IF(J5=0,H4,IF(OR(I5=0,I5=""),J5/E5)))</f>
+      <c r="H5" s="29">
+        <f t="shared" si="6"/>
         <v>8.0850000000000009</v>
       </c>
       <c r="I5" s="23">
-        <f>D5*B5</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J5" s="23">
-        <f>E5*B5</f>
+        <f t="shared" si="8"/>
         <v>242.55</v>
       </c>
       <c r="K5" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L5" s="23">
-        <f>SUM(I5:K5)</f>
+        <f t="shared" si="10"/>
         <v>242.55</v>
       </c>
       <c r="M5" s="11">
-        <f>L5*B5</f>
-        <v>1961.0167500000002</v>
+        <f t="shared" si="11"/>
+        <v>242.55</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -997,44 +1005,44 @@
         <v>0</v>
       </c>
       <c r="D6" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="E6" s="8">
-        <f>IF(C6&gt;0,C6,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6" s="8">
-        <f>IF(C6&lt;0,C6,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G6" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="H6" s="23">
-        <f t="shared" ref="H6:H31" si="4">IF(AND(I6&gt;0,J6&gt;0),((J6/E6)+(I6/D6))/2,IF(J6=0,H5,IF(OR(I6=0,I6=""),J6/E6)))</f>
+      <c r="H6" s="29">
+        <f t="shared" si="6"/>
         <v>8.0850000000000009</v>
       </c>
       <c r="I6" s="23">
-        <f>D6*B6</f>
+        <f t="shared" si="7"/>
         <v>242.55</v>
       </c>
       <c r="J6" s="23">
-        <f>E6*B6</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K6" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L6" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>242.55</v>
       </c>
       <c r="M6" s="11">
-        <f>L6*B6</f>
-        <v>1961.0167500000002</v>
+        <f t="shared" si="11"/>
+        <v>242.55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1048,44 +1056,44 @@
         <v>10000</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="E7" s="8">
-        <f>IF(C7&gt;0,C7,0)</f>
+        <f t="shared" si="0"/>
         <v>10000</v>
       </c>
       <c r="F7" s="8">
-        <f>IF(C7&lt;0,C7,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H7" s="23">
-        <f t="shared" si="4"/>
+      <c r="H7" s="29">
+        <f t="shared" si="6"/>
         <v>8.0850000000000009</v>
       </c>
       <c r="I7" s="23">
-        <f>D7*B7</f>
+        <f t="shared" si="7"/>
         <v>242.55</v>
       </c>
       <c r="J7" s="23">
-        <f>E7*B7</f>
+        <f t="shared" si="8"/>
         <v>80850.000000000015</v>
       </c>
       <c r="K7" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L7" s="23">
-        <f t="shared" si="2"/>
-        <v>81092.550000000017</v>
+        <f t="shared" si="10"/>
+        <v>81092.55</v>
       </c>
       <c r="M7" s="11">
-        <f>L7*B7</f>
-        <v>655633.26675000018</v>
+        <f t="shared" si="11"/>
+        <v>81092.55</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1099,44 +1107,44 @@
         <v>1645</v>
       </c>
       <c r="D8" s="8">
+        <f t="shared" si="12"/>
+        <v>10030</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>1645</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="5"/>
+        <v>11675</v>
+      </c>
+      <c r="H8" s="29">
+        <f t="shared" ref="H3:H13" si="13">IF(J8=0,H7,IF(I8=0,J8/E8,IF(J8&gt;0,(H7*(1-(D8/G8))) + (B8*(1-(E8/G8))))))</f>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I8" s="23">
+        <f>D8*H7</f>
+        <v>81092.55</v>
+      </c>
+      <c r="J8" s="23">
         <f t="shared" si="3"/>
-        <v>10030</v>
-      </c>
-      <c r="E8" s="8">
-        <f>IF(C8&gt;0,C8,0)</f>
-        <v>1645</v>
-      </c>
-      <c r="F8" s="8">
-        <f>IF(C8&lt;0,C8,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>11675</v>
-      </c>
-      <c r="H8" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I8" s="23">
-        <f>D8*B8</f>
-        <v>90370.3</v>
-      </c>
-      <c r="J8" s="23">
-        <f>E8*B8</f>
         <v>14821.449999999999</v>
       </c>
       <c r="K8" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K3:K31" si="14">(F8*H8)</f>
         <v>0</v>
       </c>
       <c r="L8" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L6:L31" si="15">H8*G8</f>
+        <v>103670.125</v>
+      </c>
+      <c r="M8" s="11">
+        <f t="shared" ref="M5:M30" si="16">G8*B8</f>
         <v>105191.75</v>
-      </c>
-      <c r="M8" s="11">
-        <f>L8*B8</f>
-        <v>947777.66749999998</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1150,44 +1158,44 @@
         <v>0</v>
       </c>
       <c r="D9" s="8">
+        <f t="shared" si="12"/>
+        <v>11675</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="5"/>
+        <v>11675</v>
+      </c>
+      <c r="H9" s="29">
+        <f t="shared" si="13"/>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I9" s="23">
+        <f>D9*H8</f>
+        <v>103670.125</v>
+      </c>
+      <c r="J9" s="23">
         <f t="shared" si="3"/>
-        <v>11675</v>
-      </c>
-      <c r="E9" s="8">
-        <f>IF(C9&gt;0,C9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <f>IF(C9&lt;0,C9,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>11675</v>
-      </c>
-      <c r="H9" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I9" s="23">
-        <f>D9*B9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="23">
+        <f t="shared" si="15"/>
+        <v>103670.125</v>
+      </c>
+      <c r="M9" s="11">
+        <f t="shared" si="16"/>
         <v>107059.75</v>
-      </c>
-      <c r="J9" s="23">
-        <f>E9*B9</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="23">
-        <f t="shared" si="2"/>
-        <v>107059.75</v>
-      </c>
-      <c r="M9" s="11">
-        <f>L9*B9</f>
-        <v>981737.90749999997</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -1201,44 +1209,44 @@
         <v>0</v>
       </c>
       <c r="D10" s="8">
+        <f t="shared" si="12"/>
+        <v>11675</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="8">
+        <f t="shared" si="5"/>
+        <v>11675</v>
+      </c>
+      <c r="H10" s="29">
+        <f t="shared" si="13"/>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I10" s="23">
+        <f t="shared" ref="I9:I31" si="17">D10*H9</f>
+        <v>103670.125</v>
+      </c>
+      <c r="J10" s="23">
         <f t="shared" si="3"/>
-        <v>11675</v>
-      </c>
-      <c r="E10" s="8">
-        <f>IF(C10&gt;0,C10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <f>IF(C10&lt;0,C10,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
-        <v>11675</v>
-      </c>
-      <c r="H10" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I10" s="23">
-        <f>D10*B10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="23">
+        <f t="shared" si="15"/>
+        <v>103670.125</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" si="16"/>
         <v>109745</v>
-      </c>
-      <c r="J10" s="23">
-        <f>E10*B10</f>
-        <v>0</v>
-      </c>
-      <c r="K10" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="23">
-        <f t="shared" si="2"/>
-        <v>109745</v>
-      </c>
-      <c r="M10" s="11">
-        <f>L10*B10</f>
-        <v>1031603</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1252,44 +1260,44 @@
         <v>0</v>
       </c>
       <c r="D11" s="8">
+        <f t="shared" si="12"/>
+        <v>11675</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="5"/>
+        <v>11675</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" si="13"/>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I11" s="23">
+        <f t="shared" si="17"/>
+        <v>103670.125</v>
+      </c>
+      <c r="J11" s="23">
         <f t="shared" si="3"/>
-        <v>11675</v>
-      </c>
-      <c r="E11" s="8">
-        <f>IF(C11&gt;0,C11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <f>IF(C11&lt;0,C11,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
-        <v>11675</v>
-      </c>
-      <c r="H11" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I11" s="23">
-        <f>D11*B11</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="23">
+        <f t="shared" si="15"/>
+        <v>103670.125</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" si="16"/>
         <v>91065</v>
-      </c>
-      <c r="J11" s="23">
-        <f>E11*B11</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <f t="shared" si="2"/>
-        <v>91065</v>
-      </c>
-      <c r="M11" s="11">
-        <f>L11*B11</f>
-        <v>710307</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -1303,44 +1311,44 @@
         <v>-1645</v>
       </c>
       <c r="D12" s="8">
+        <f t="shared" si="12"/>
+        <v>11675</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>-1645</v>
+      </c>
+      <c r="G12" s="8">
+        <f t="shared" si="5"/>
+        <v>10030</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="13"/>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" si="17"/>
+        <v>103670.125</v>
+      </c>
+      <c r="J12" s="23">
         <f t="shared" si="3"/>
-        <v>11675</v>
-      </c>
-      <c r="E12" s="8">
-        <f>IF(C12&gt;0,C12,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <f>IF(C12&lt;0,C12,0)</f>
-        <v>-1645</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
-        <v>10030</v>
-      </c>
-      <c r="H12" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I12" s="23">
-        <f>D12*B12</f>
-        <v>99762.875</v>
-      </c>
-      <c r="J12" s="23">
-        <f>E12*B12</f>
         <v>0</v>
       </c>
       <c r="K12" s="23">
-        <f t="shared" si="1"/>
-        <v>-14821.449999999999</v>
+        <f t="shared" si="14"/>
+        <v>-14607.054014989293</v>
       </c>
       <c r="L12" s="23">
-        <f t="shared" si="2"/>
-        <v>84941.425000000003</v>
+        <f t="shared" si="15"/>
+        <v>89063.070985010709</v>
       </c>
       <c r="M12" s="11">
-        <f>L12*B12</f>
-        <v>725824.47662500001</v>
+        <f t="shared" si="16"/>
+        <v>85706.35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
@@ -1354,44 +1362,44 @@
         <v>0</v>
       </c>
       <c r="D13" s="8">
+        <f t="shared" si="12"/>
+        <v>10030</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="5"/>
+        <v>10030</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="13"/>
+        <v>8.879668094218415</v>
+      </c>
+      <c r="I13" s="23">
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J13" s="23">
         <f t="shared" si="3"/>
-        <v>10030</v>
-      </c>
-      <c r="E13" s="8">
-        <f>IF(C13&gt;0,C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <f>IF(C13&lt;0,C13,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
-        <v>10030</v>
-      </c>
-      <c r="H13" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
-      </c>
-      <c r="I13" s="23">
-        <f>D13*B13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="23">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="23">
+        <f t="shared" si="15"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M13" s="11">
+        <f t="shared" si="16"/>
         <v>85706.35</v>
-      </c>
-      <c r="J13" s="23">
-        <f>E13*B13</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <f t="shared" si="2"/>
-        <v>85706.35</v>
-      </c>
-      <c r="M13" s="11">
-        <f>L13*B13</f>
-        <v>732360.76075000002</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -1405,44 +1413,44 @@
         <v>0</v>
       </c>
       <c r="D14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E14" s="8">
-        <f>IF(C14&gt;0,C14,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="8">
-        <f>IF(C14&lt;0,C14,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G14" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H14" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H14" s="29">
+        <f t="shared" ref="H14:H31" si="18">IF(J14=0,H13,IF(I14=0,J14/E14,IF(J14&gt;0,(H13*(1-(D14/G14))) + (B14*(1-(E14/G14))))))</f>
+        <v>8.879668094218415</v>
       </c>
       <c r="I14" s="23">
-        <f>D14*B14</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J14" s="23">
+        <f t="shared" ref="J14:J31" si="19">E14*B14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="23">
+        <f t="shared" ref="K14:K31" si="20">(F14*H14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="23">
+        <f t="shared" ref="L14:L31" si="21">H14*G14</f>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" ref="M14:M31" si="22">G14*B14</f>
         <v>85706.35</v>
-      </c>
-      <c r="J14" s="23">
-        <f>E14*B14</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <f t="shared" si="2"/>
-        <v>85706.35</v>
-      </c>
-      <c r="M14" s="11">
-        <f>L14*B14</f>
-        <v>732360.76075000002</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
@@ -1456,44 +1464,44 @@
         <v>0</v>
       </c>
       <c r="D15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E15" s="8">
-        <f>IF(C15&gt;0,C15,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="8">
-        <f>IF(C15&lt;0,C15,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H15" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H15" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I15" s="23">
-        <f>D15*B15</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M15" s="11">
+        <f t="shared" si="22"/>
         <v>88113.55</v>
-      </c>
-      <c r="J15" s="23">
-        <f>E15*B15</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="23">
-        <f t="shared" si="2"/>
-        <v>88113.55</v>
-      </c>
-      <c r="M15" s="11">
-        <f>L15*B15</f>
-        <v>774077.53675000009</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1507,44 +1515,44 @@
         <v>0</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E16" s="8">
-        <f>IF(C16&gt;0,C16,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>IF(C16&lt;0,C16,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H16" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H16" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I16" s="23">
-        <f>D16*B16</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J16" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="22"/>
         <v>81493.75</v>
-      </c>
-      <c r="J16" s="23">
-        <f>E16*B16</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="23">
-        <f t="shared" si="2"/>
-        <v>81493.75</v>
-      </c>
-      <c r="M16" s="11">
-        <f>L16*B16</f>
-        <v>662136.71875</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
@@ -1558,44 +1566,44 @@
         <v>0</v>
       </c>
       <c r="D17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E17" s="8">
-        <f>IF(C17&gt;0,C17,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="8">
-        <f>IF(C17&lt;0,C17,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H17" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H17" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I17" s="23">
-        <f>D17*B17</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J17" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M17" s="11">
+        <f t="shared" si="22"/>
         <v>75626.2</v>
-      </c>
-      <c r="J17" s="23">
-        <f>E17*B17</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <f t="shared" si="2"/>
-        <v>75626.2</v>
-      </c>
-      <c r="M17" s="11">
-        <f>L17*B17</f>
-        <v>570221.54799999995</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
@@ -1609,44 +1617,44 @@
         <v>0</v>
       </c>
       <c r="D18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E18" s="8">
-        <f>IF(C18&gt;0,C18,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="8">
-        <f>IF(C18&lt;0,C18,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H18" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H18" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I18" s="23">
-        <f>D18*B18</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="22"/>
         <v>78334.3</v>
-      </c>
-      <c r="J18" s="23">
-        <f>E18*B18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <f t="shared" si="2"/>
-        <v>78334.3</v>
-      </c>
-      <c r="M18" s="11">
-        <f>L18*B18</f>
-        <v>611790.88300000003</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
@@ -1660,44 +1668,44 @@
         <v>0</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E19" s="8">
-        <f>IF(C19&gt;0,C19,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="8">
-        <f>IF(C19&lt;0,C19,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H19" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H19" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I19" s="23">
-        <f>D19*B19</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J19" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M19" s="11">
+        <f t="shared" si="22"/>
         <v>70109.7</v>
-      </c>
-      <c r="J19" s="23">
-        <f>E19*B19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="23">
-        <f t="shared" si="2"/>
-        <v>70109.7</v>
-      </c>
-      <c r="M19" s="11">
-        <f>L19*B19</f>
-        <v>490066.80300000001</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1711,44 +1719,44 @@
         <v>0</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E20" s="8">
-        <f>IF(C20&gt;0,C20,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="8">
-        <f>IF(C20&lt;0,C20,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G20" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H20" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H20" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I20" s="23">
-        <f>D20*B20</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="22"/>
         <v>70109.7</v>
-      </c>
-      <c r="J20" s="23">
-        <f>E20*B20</f>
-        <v>0</v>
-      </c>
-      <c r="K20" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="23">
-        <f t="shared" si="2"/>
-        <v>70109.7</v>
-      </c>
-      <c r="M20" s="11">
-        <f>L20*B20</f>
-        <v>490066.80300000001</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1762,44 +1770,44 @@
         <v>0</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E21" s="8">
-        <f>IF(C21&gt;0,C21,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="8">
-        <f>IF(C21&lt;0,C21,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H21" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H21" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I21" s="23">
-        <f>D21*B21</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J21" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M21" s="11">
+        <f t="shared" si="22"/>
         <v>70109.7</v>
-      </c>
-      <c r="J21" s="23">
-        <f>E21*B21</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="23">
-        <f t="shared" si="2"/>
-        <v>70109.7</v>
-      </c>
-      <c r="M21" s="11">
-        <f>L21*B21</f>
-        <v>490066.80300000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1813,44 +1821,44 @@
         <v>0</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E22" s="8">
-        <f>IF(C22&gt;0,C22,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f>IF(C22&lt;0,C22,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G22" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H22" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H22" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I22" s="23">
-        <f>D22*B22</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J22" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="22"/>
         <v>70109.7</v>
-      </c>
-      <c r="J22" s="23">
-        <f>E22*B22</f>
-        <v>0</v>
-      </c>
-      <c r="K22" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="23">
-        <f t="shared" si="2"/>
-        <v>70109.7</v>
-      </c>
-      <c r="M22" s="11">
-        <f>L22*B22</f>
-        <v>490066.80300000001</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1864,44 +1872,44 @@
         <v>0</v>
       </c>
       <c r="D23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E23" s="8">
-        <f>IF(C23&gt;0,C23,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="8">
-        <f>IF(C23&lt;0,C23,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H23" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H23" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I23" s="23">
-        <f>D23*B23</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J23" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M23" s="11">
+        <f t="shared" si="22"/>
         <v>65696.5</v>
-      </c>
-      <c r="J23" s="23">
-        <f>E23*B23</f>
-        <v>0</v>
-      </c>
-      <c r="K23" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="23">
-        <f t="shared" si="2"/>
-        <v>65696.5</v>
-      </c>
-      <c r="M23" s="11">
-        <f>L23*B23</f>
-        <v>430312.07500000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1915,44 +1923,44 @@
         <v>0</v>
       </c>
       <c r="D24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E24" s="8">
-        <f>IF(C24&gt;0,C24,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="8">
-        <f>IF(C24&lt;0,C24,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10030</v>
       </c>
-      <c r="H24" s="23">
-        <f t="shared" si="4"/>
-        <v>9.01</v>
+      <c r="H24" s="29">
+        <f t="shared" si="18"/>
+        <v>8.879668094218415</v>
       </c>
       <c r="I24" s="23">
-        <f>D24*B24</f>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="J24" s="23">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="23">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="23">
+        <f t="shared" si="21"/>
+        <v>89063.070985010709</v>
+      </c>
+      <c r="M24" s="11">
+        <f t="shared" si="22"/>
         <v>65796.800000000003</v>
-      </c>
-      <c r="J24" s="23">
-        <f>E24*B24</f>
-        <v>0</v>
-      </c>
-      <c r="K24" s="23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="23">
-        <f t="shared" si="2"/>
-        <v>65796.800000000003</v>
-      </c>
-      <c r="M24" s="11">
-        <f>L24*B24</f>
-        <v>431627.00799999997</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -1966,44 +1974,44 @@
         <v>893</v>
       </c>
       <c r="D25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10030</v>
       </c>
       <c r="E25" s="8">
-        <f>IF(C25&gt;0,C25,0)</f>
+        <f t="shared" si="0"/>
         <v>893</v>
       </c>
       <c r="F25" s="8">
-        <f>IF(C25&lt;0,C25,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G25" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10923</v>
       </c>
-      <c r="H25" s="23">
-        <f t="shared" si="4"/>
-        <v>6.5549999999999997</v>
+      <c r="H25" s="29">
+        <f t="shared" si="18"/>
+        <v>6.7450511405417046</v>
       </c>
       <c r="I25" s="23">
-        <f>D25*B25</f>
-        <v>65746.649999999994</v>
+        <f t="shared" si="17"/>
+        <v>89063.070985010709</v>
       </c>
       <c r="J25" s="23">
-        <f>E25*B25</f>
+        <f t="shared" si="19"/>
         <v>5853.6149999999998</v>
       </c>
       <c r="K25" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L25" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
+        <v>73676.193608137037</v>
+      </c>
+      <c r="M25" s="11">
+        <f t="shared" si="22"/>
         <v>71600.264999999999</v>
-      </c>
-      <c r="M25" s="11">
-        <f>L25*B25</f>
-        <v>469339.73707499995</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -2017,44 +2025,44 @@
         <v>15</v>
       </c>
       <c r="D26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10923</v>
       </c>
       <c r="E26" s="8">
-        <f>IF(C26&gt;0,C26,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F26" s="8">
-        <f>IF(C26&lt;0,C26,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G26" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10938</v>
       </c>
-      <c r="H26" s="23">
-        <f t="shared" si="4"/>
-        <v>6.125</v>
+      <c r="H26" s="29">
+        <f t="shared" si="18"/>
+        <v>6.1258503169782523</v>
       </c>
       <c r="I26" s="23">
-        <f>D26*B26</f>
-        <v>66903.375</v>
+        <f t="shared" si="17"/>
+        <v>73676.193608137037</v>
       </c>
       <c r="J26" s="23">
-        <f>E26*B26</f>
+        <f t="shared" si="19"/>
         <v>91.875</v>
       </c>
       <c r="K26" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L26" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
+        <v>67004.550767108129</v>
+      </c>
+      <c r="M26" s="11">
+        <f t="shared" si="22"/>
         <v>66995.25</v>
-      </c>
-      <c r="M26" s="11">
-        <f>L26*B26</f>
-        <v>410345.90625</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -2068,44 +2076,44 @@
         <v>15</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10938</v>
       </c>
       <c r="E27" s="8">
-        <f>IF(C27&gt;0,C27,0)</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="F27" s="8">
-        <f>IF(C27&lt;0,C27,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G27" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10953</v>
       </c>
-      <c r="H27" s="23">
-        <f t="shared" si="4"/>
-        <v>6.125</v>
+      <c r="H27" s="29">
+        <f t="shared" si="18"/>
+        <v>6.1250011644987383</v>
       </c>
       <c r="I27" s="23">
-        <f>D27*B27</f>
-        <v>66995.25</v>
+        <f t="shared" si="17"/>
+        <v>67004.550767108129</v>
       </c>
       <c r="J27" s="23">
-        <f>E27*B27</f>
+        <f t="shared" si="19"/>
         <v>91.875</v>
       </c>
       <c r="K27" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L27" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
+        <v>67087.137754754687</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" si="22"/>
         <v>67087.125</v>
-      </c>
-      <c r="M27" s="11">
-        <f>L27*B27</f>
-        <v>410908.640625</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -2119,44 +2127,44 @@
         <v>21</v>
       </c>
       <c r="D28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10953</v>
       </c>
       <c r="E28" s="8">
-        <f>IF(C28&gt;0,C28,0)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="F28" s="8">
-        <f>IF(C28&lt;0,C28,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G28" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10974</v>
       </c>
-      <c r="H28" s="23">
-        <f t="shared" si="4"/>
-        <v>6.125</v>
+      <c r="H28" s="29">
+        <f t="shared" si="18"/>
+        <v>6.1250000022284015</v>
       </c>
       <c r="I28" s="23">
-        <f>D28*B28</f>
-        <v>67087.125</v>
+        <f t="shared" si="17"/>
+        <v>67087.137754754687</v>
       </c>
       <c r="J28" s="23">
-        <f>E28*B28</f>
+        <f t="shared" si="19"/>
         <v>128.625</v>
       </c>
       <c r="K28" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L28" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
+        <v>67215.750024454479</v>
+      </c>
+      <c r="M28" s="11">
+        <f t="shared" si="22"/>
         <v>67215.75</v>
-      </c>
-      <c r="M28" s="11">
-        <f>L28*B28</f>
-        <v>411696.46875</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
@@ -2170,44 +2178,44 @@
         <v>-551</v>
       </c>
       <c r="D29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10974</v>
       </c>
       <c r="E29" s="8">
-        <f>IF(C29&gt;0,C29,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="8">
-        <f>IF(C29&lt;0,C29,0)</f>
+        <f t="shared" si="1"/>
         <v>-551</v>
       </c>
       <c r="G29" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>10423</v>
       </c>
-      <c r="H29" s="23">
-        <f t="shared" si="4"/>
-        <v>6.125</v>
+      <c r="H29" s="29">
+        <f t="shared" si="18"/>
+        <v>6.1250000022284015</v>
       </c>
       <c r="I29" s="23">
-        <f>D29*B29</f>
-        <v>67106.010000000009</v>
+        <f t="shared" si="17"/>
+        <v>67215.750024454479</v>
       </c>
       <c r="J29" s="23">
-        <f>E29*B29</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K29" s="23">
-        <f t="shared" si="1"/>
-        <v>-3374.875</v>
+        <f t="shared" si="20"/>
+        <v>-3374.8750012278492</v>
       </c>
       <c r="L29" s="23">
-        <f t="shared" si="2"/>
-        <v>63731.135000000009</v>
+        <f t="shared" si="21"/>
+        <v>63840.875023226632</v>
       </c>
       <c r="M29" s="11">
-        <f>L29*B29</f>
-        <v>389715.89052500005</v>
+        <f t="shared" si="22"/>
+        <v>63736.645000000004</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
@@ -2221,44 +2229,44 @@
         <v>6678</v>
       </c>
       <c r="D30" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>10423</v>
       </c>
       <c r="E30" s="8">
-        <f>IF(C30&gt;0,C30,0)</f>
+        <f t="shared" si="0"/>
         <v>6678</v>
       </c>
       <c r="F30" s="8">
-        <f>IF(C30&lt;0,C30,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G30" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>17101</v>
       </c>
-      <c r="H30" s="23">
-        <f t="shared" si="4"/>
-        <v>6.6150000000000002</v>
+      <c r="H30" s="29">
+        <f t="shared" si="18"/>
+        <v>6.4236532959991388</v>
       </c>
       <c r="I30" s="23">
-        <f>D30*B30</f>
-        <v>68948.145000000004</v>
+        <f t="shared" si="17"/>
+        <v>63840.875023226632</v>
       </c>
       <c r="J30" s="23">
-        <f>E30*B30</f>
+        <f t="shared" si="19"/>
         <v>44174.97</v>
       </c>
       <c r="K30" s="23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="L30" s="23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="21"/>
+        <v>109850.89501488127</v>
+      </c>
+      <c r="M30" s="11">
+        <f t="shared" si="22"/>
         <v>113123.11500000001</v>
-      </c>
-      <c r="M30" s="11">
-        <f>L30*B30</f>
-        <v>748309.40572500008</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2272,44 +2280,44 @@
         <v>-105</v>
       </c>
       <c r="D31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>17101</v>
       </c>
       <c r="E31" s="8">
-        <f>IF(C31&gt;0,C31,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="8">
-        <f>IF(C31&lt;0,C31,0)</f>
+        <f t="shared" si="1"/>
         <v>-105</v>
       </c>
       <c r="G31" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>16996</v>
       </c>
-      <c r="H31" s="23">
-        <f t="shared" si="4"/>
-        <v>6.6150000000000002</v>
+      <c r="H31" s="29">
+        <f t="shared" si="18"/>
+        <v>6.4236532959991388</v>
       </c>
       <c r="I31" s="23">
-        <f>D31*B31</f>
-        <v>115431.75</v>
+        <f t="shared" si="17"/>
+        <v>109850.89501488127</v>
       </c>
       <c r="J31" s="23">
-        <f>E31*B31</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="K31" s="23">
-        <f t="shared" si="1"/>
-        <v>-694.57500000000005</v>
+        <f t="shared" si="20"/>
+        <v>-674.4835960799096</v>
       </c>
       <c r="L31" s="23">
-        <f t="shared" si="2"/>
-        <v>114737.175</v>
+        <f t="shared" si="21"/>
+        <v>109176.41141880136</v>
       </c>
       <c r="M31" s="11">
-        <f>L31*B31</f>
-        <v>774475.93125000002</v>
+        <f t="shared" si="22"/>
+        <v>114723</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
@@ -2317,7 +2325,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="12"/>
+      <c r="H32" s="30"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
@@ -2344,26 +2352,26 @@
         <f>+G31</f>
         <v>16996</v>
       </c>
-      <c r="H33" s="16"/>
+      <c r="H33" s="31"/>
       <c r="I33" s="16">
         <f>+I2</f>
         <v>0</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" ref="J33:K33" si="5">SUM(J2:J31)</f>
+        <f t="shared" ref="J33:K33" si="23">SUM(J2:J31)</f>
         <v>146254.96000000002</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="5"/>
-        <v>-18890.899999999998</v>
+        <f t="shared" si="23"/>
+        <v>-18656.412612297052</v>
       </c>
       <c r="L33" s="16">
         <f>+L31</f>
-        <v>114737.175</v>
+        <v>109176.41141880136</v>
       </c>
       <c r="M33" s="16">
         <f>+M31</f>
-        <v>774475.93125000002</v>
+        <v>114723</v>
       </c>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -2374,7 +2382,7 @@
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
-      <c r="H34"/>
+      <c r="H34" s="32"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
